--- a/varianciacluster1.xlsx
+++ b/varianciacluster1.xlsx
@@ -88,13 +88,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.007104094285694073</v>
+        <v>0.007784434369061462</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003468129528832401</v>
+        <v>-3.237238719592966E-4</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.7769936908160183E-4</v>
+        <v>-0.006197170955838846</v>
       </c>
     </row>
     <row r="3">
@@ -102,13 +102,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.003468129528832401</v>
+        <v>-3.237238719592966E-4</v>
       </c>
       <c r="C3" t="n">
-        <v>0.018220065119529567</v>
+        <v>0.008034506674830943</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.7143155834129847E-4</v>
+        <v>0.008615455717068099</v>
       </c>
     </row>
     <row r="4">
@@ -116,13 +116,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.7769936908160183E-4</v>
+        <v>-0.006197170955838846</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.7143155834129847E-4</v>
+        <v>0.008615455717068099</v>
       </c>
       <c r="D4" t="n">
-        <v>7.700974410252913E-5</v>
+        <v>0.22128100255693553</v>
       </c>
     </row>
   </sheetData>
